--- a/KATO/Template/B0420_SeikyuMeisaishoPrint.xlsx
+++ b/KATO/Template/B0420_SeikyuMeisaishoPrint.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>請　　　求　　　書</t>
     <rPh sb="0" eb="1">
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>　△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請　　　求　　　書</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -285,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +366,9 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,10 +418,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +733,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -760,53 +770,59 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+    <row r="3" spans="1:19" ht="17.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="H4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
@@ -816,76 +832,76 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="O10" s="28" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="O10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N12" s="2"/>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -897,37 +913,37 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
@@ -937,546 +953,546 @@
       <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="22"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="21"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="22"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="22"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="21"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="24"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="22"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="22"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
     </row>
     <row r="36" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="25"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
       <c r="P36" s="21"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="24"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
       <c r="P38" s="21"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
       <c r="P39" s="22"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
     </row>
     <row r="40" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
       <c r="P40" s="21"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="25"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
       <c r="P42" s="21"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="P43" s="4" t="s">
@@ -1487,8 +1503,7 @@
       <c r="P44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="138">
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="K42:M42"/>
@@ -1603,6 +1618,7 @@
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="H4:M4"/>
     <mergeCell ref="H6:M7"/>
     <mergeCell ref="M15:S16"/>
     <mergeCell ref="M14:S14"/>
@@ -1625,6 +1641,7 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="O6:S8"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1675,51 +1692,51 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
@@ -1729,704 +1746,704 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="O10" s="28" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="O10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N12" s="16"/>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
     </row>
     <row r="36" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
     </row>
     <row r="40" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="19"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
